--- a/backend/src/excel_handler/files/DOME.xlsx
+++ b/backend/src/excel_handler/files/DOME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03-02-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
     </row>
@@ -477,25 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C2" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E2" t="n">
-        <v>968.73</v>
-      </c>
-      <c r="F2" t="n">
-        <v>991.46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>941.99</v>
-      </c>
-      <c r="H2" t="n">
-        <v>699.48</v>
+        <v>867.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C3" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E3" t="n">
-        <v>968.73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>991.46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>941.99</v>
-      </c>
-      <c r="H3" t="n">
-        <v>699.48</v>
+        <v>867.84</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C4" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E4" t="n">
-        <v>968.73</v>
-      </c>
-      <c r="F4" t="n">
-        <v>991.46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>941.99</v>
-      </c>
-      <c r="H4" t="n">
-        <v>699.48</v>
+        <v>867.84</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DOME.xlsx
+++ b/backend/src/excel_handler/files/DOME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
         </is>
       </c>
     </row>
@@ -462,16 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>829.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>877.51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>842.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>968.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>991.46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>941.99</v>
+      </c>
+      <c r="H2" t="n">
         <v>699.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>869.8099999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>829.36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>867.84</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>829.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>877.51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>842.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>968.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>991.46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>941.99</v>
+      </c>
+      <c r="H3" t="n">
         <v>699.48</v>
-      </c>
-      <c r="C3" t="n">
-        <v>869.8099999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>829.36</v>
-      </c>
-      <c r="E3" t="n">
-        <v>867.84</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>829.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>877.51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>842.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>968.73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>991.46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>941.99</v>
+      </c>
+      <c r="H4" t="n">
         <v>699.48</v>
-      </c>
-      <c r="C4" t="n">
-        <v>869.8099999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>829.36</v>
-      </c>
-      <c r="E4" t="n">
-        <v>867.84</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DOME.xlsx
+++ b/backend/src/excel_handler/files/DOME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>02-06-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
         </is>
       </c>
     </row>
@@ -477,25 +497,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C2" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E2" t="n">
-        <v>968.73</v>
+        <v>867.84</v>
       </c>
       <c r="F2" t="n">
-        <v>991.46</v>
+        <v>955.51</v>
       </c>
       <c r="G2" t="n">
-        <v>941.99</v>
+        <v>1094.54</v>
       </c>
       <c r="H2" t="n">
-        <v>699.48</v>
+        <v>1055.12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1227.41</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1134.56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1109.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1044.63</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C3" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E3" t="n">
-        <v>968.73</v>
+        <v>867.84</v>
       </c>
       <c r="F3" t="n">
-        <v>991.46</v>
+        <v>955.51</v>
       </c>
       <c r="G3" t="n">
-        <v>941.99</v>
+        <v>1094.54</v>
       </c>
       <c r="H3" t="n">
-        <v>699.48</v>
+        <v>1055.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1227.41</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1134.56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1109.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1044.63</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +577,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.2</v>
+        <v>699.48</v>
       </c>
       <c r="C4" t="n">
-        <v>877.51</v>
+        <v>869.8099999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>842.4</v>
+        <v>829.36</v>
       </c>
       <c r="E4" t="n">
-        <v>968.73</v>
+        <v>867.84</v>
       </c>
       <c r="F4" t="n">
-        <v>991.46</v>
+        <v>955.51</v>
       </c>
       <c r="G4" t="n">
-        <v>941.99</v>
+        <v>1094.54</v>
       </c>
       <c r="H4" t="n">
-        <v>699.48</v>
+        <v>1055.12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1227.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1134.56</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1109.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1044.63</v>
       </c>
     </row>
   </sheetData>
